--- a/simulated_data/10nodes_50len_trial0.xlsx
+++ b/simulated_data/10nodes_50len_trial0.xlsx
@@ -10,20 +10,27 @@
     <sheet name="rss_data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="true_dist" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="est_dist_data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="rss_only_dist" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="rss_post_averaged_dist" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="spring_model_dist" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="spring_model_locs" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="sdp_dist" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="sdp_locs" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="mds_metric_dist" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="mds_metric_locs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="mds_non_metric_dist" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="mds_non_metric_locs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="sdp_init_spring_dist" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="sdp_init_spring_locs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="runtimes" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="estimation_performance" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="spring_model_dist" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="spring_model_locs" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="estimation_performance" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="rss_only_dist" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="rss_pre_averaged_dist" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="rss_post_averaged_dist" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="spring_model_5inits_dist" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="spring_model_5inits_locs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="sdp_dist" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="sdp_locs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="mds_metric_dist" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="mds_metric_locs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="mds_non_metric_dist" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="mds_non_metric_locs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="sdp_init_spring_dist" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="sdp_init_spring_locs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="lle_dist" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="lle_locs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="isomap_dist" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="isomap_locs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="runtimes" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,7 +544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,16 +559,64 @@
       <c r="C1" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13.09474572082203</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>5.669466478562222</v>
+        <v>48.33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>39.05</v>
+      </c>
+      <c r="E2" t="n">
+        <v>38.595</v>
+      </c>
+      <c r="F2" t="n">
+        <v>25.03</v>
+      </c>
+      <c r="G2" t="n">
+        <v>32.175</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8.695</v>
+      </c>
+      <c r="I2" t="n">
+        <v>31.28</v>
+      </c>
+      <c r="J2" t="n">
+        <v>45.635</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12.99</v>
       </c>
     </row>
     <row r="3">
@@ -569,10 +624,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-14.28567163327027</v>
+        <v>48.33</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.6236909013406</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34.57</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8.395</v>
+      </c>
+      <c r="F3" t="n">
+        <v>26.94</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25.465</v>
+      </c>
+      <c r="H3" t="n">
+        <v>37</v>
+      </c>
+      <c r="I3" t="n">
+        <v>35.855</v>
+      </c>
+      <c r="J3" t="n">
+        <v>41.595</v>
+      </c>
+      <c r="K3" t="n">
+        <v>47.95</v>
       </c>
     </row>
     <row r="4">
@@ -580,10 +659,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-10.88652724953166</v>
+        <v>39.05</v>
       </c>
       <c r="C4" t="n">
-        <v>-23.4499320679736</v>
+        <v>34.57</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>32.36</v>
+      </c>
+      <c r="F4" t="n">
+        <v>28.685</v>
+      </c>
+      <c r="G4" t="n">
+        <v>48.33</v>
+      </c>
+      <c r="H4" t="n">
+        <v>32.355</v>
+      </c>
+      <c r="I4" t="n">
+        <v>28.495</v>
+      </c>
+      <c r="J4" t="n">
+        <v>37.795</v>
+      </c>
+      <c r="K4" t="n">
+        <v>47.705</v>
       </c>
     </row>
     <row r="5">
@@ -591,10 +694,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-7.294068009654993</v>
+        <v>38.595</v>
       </c>
       <c r="C5" t="n">
-        <v>-14.43024157923448</v>
+        <v>8.395</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32.36</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>18.095</v>
+      </c>
+      <c r="G5" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>33.195</v>
+      </c>
+      <c r="I5" t="n">
+        <v>48.33</v>
+      </c>
+      <c r="J5" t="n">
+        <v>38.365</v>
+      </c>
+      <c r="K5" t="n">
+        <v>30.905</v>
       </c>
     </row>
     <row r="6">
@@ -602,10 +729,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-4.118107084208773</v>
+        <v>25.03</v>
       </c>
       <c r="C6" t="n">
-        <v>-10.32288584143079</v>
+        <v>26.94</v>
+      </c>
+      <c r="D6" t="n">
+        <v>28.685</v>
+      </c>
+      <c r="E6" t="n">
+        <v>18.095</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="H6" t="n">
+        <v>29.075</v>
+      </c>
+      <c r="I6" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="J6" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="K6" t="n">
+        <v>13.615</v>
       </c>
     </row>
     <row r="7">
@@ -613,10 +764,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-13.04740846216027</v>
+        <v>32.175</v>
       </c>
       <c r="C7" t="n">
-        <v>-21.5805746687324</v>
+        <v>25.465</v>
+      </c>
+      <c r="D7" t="n">
+        <v>48.33</v>
+      </c>
+      <c r="E7" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>35.26</v>
+      </c>
+      <c r="I7" t="n">
+        <v>17.16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>25.265</v>
+      </c>
+      <c r="K7" t="n">
+        <v>38.38500000000001</v>
       </c>
     </row>
     <row r="8">
@@ -624,10 +799,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.25463870988747</v>
+        <v>8.695</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.413875798575625</v>
+        <v>37</v>
+      </c>
+      <c r="D8" t="n">
+        <v>32.355</v>
+      </c>
+      <c r="E8" t="n">
+        <v>33.195</v>
+      </c>
+      <c r="F8" t="n">
+        <v>29.075</v>
+      </c>
+      <c r="G8" t="n">
+        <v>35.26</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>37.07</v>
+      </c>
+      <c r="J8" t="n">
+        <v>36.925</v>
+      </c>
+      <c r="K8" t="n">
+        <v>31.625</v>
       </c>
     </row>
     <row r="9">
@@ -635,10 +834,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-16.41277973009097</v>
+        <v>31.28</v>
       </c>
       <c r="C9" t="n">
-        <v>-14.3995708155198</v>
+        <v>35.855</v>
+      </c>
+      <c r="D9" t="n">
+        <v>28.495</v>
+      </c>
+      <c r="E9" t="n">
+        <v>48.33</v>
+      </c>
+      <c r="F9" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="G9" t="n">
+        <v>17.16</v>
+      </c>
+      <c r="H9" t="n">
+        <v>37.07</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9.835000000000001</v>
+      </c>
+      <c r="K9" t="n">
+        <v>23.555</v>
       </c>
     </row>
     <row r="10">
@@ -646,10 +869,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-10.9398417715975</v>
+        <v>45.635</v>
       </c>
       <c r="C10" t="n">
-        <v>-13.03071315754244</v>
+        <v>41.595</v>
+      </c>
+      <c r="D10" t="n">
+        <v>37.795</v>
+      </c>
+      <c r="E10" t="n">
+        <v>38.365</v>
+      </c>
+      <c r="F10" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="G10" t="n">
+        <v>25.265</v>
+      </c>
+      <c r="H10" t="n">
+        <v>36.925</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9.835000000000001</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>23.425</v>
       </c>
     </row>
     <row r="11">
@@ -657,10 +904,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>12.99</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>47.95</v>
+      </c>
+      <c r="D11" t="n">
+        <v>47.705</v>
+      </c>
+      <c r="E11" t="n">
+        <v>30.905</v>
+      </c>
+      <c r="F11" t="n">
+        <v>13.615</v>
+      </c>
+      <c r="G11" t="n">
+        <v>38.38500000000001</v>
+      </c>
+      <c r="H11" t="n">
+        <v>31.625</v>
+      </c>
+      <c r="I11" t="n">
+        <v>23.555</v>
+      </c>
+      <c r="J11" t="n">
+        <v>23.425</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -722,31 +993,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>47.72</v>
+        <v>38.62</v>
       </c>
       <c r="D2" t="n">
-        <v>32.43</v>
+        <v>46.14</v>
       </c>
       <c r="E2" t="n">
-        <v>39.92</v>
+        <v>28.31</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58</v>
+        <v>17.42</v>
       </c>
       <c r="G2" t="n">
-        <v>41.08</v>
+        <v>29.46</v>
       </c>
       <c r="H2" t="n">
-        <v>9.49</v>
+        <v>6.13</v>
       </c>
       <c r="I2" t="n">
-        <v>29.42</v>
+        <v>30.39</v>
       </c>
       <c r="J2" t="n">
-        <v>35.79</v>
+        <v>25.36</v>
       </c>
       <c r="K2" t="n">
-        <v>15.64</v>
+        <v>18.31</v>
       </c>
     </row>
     <row r="3">
@@ -754,34 +1025,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>47.72</v>
+        <v>38.62</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>29.65</v>
+        <v>20.17</v>
       </c>
       <c r="E3" t="n">
-        <v>8.31</v>
+        <v>10.34</v>
       </c>
       <c r="F3" t="n">
-        <v>26.28</v>
+        <v>21.68</v>
       </c>
       <c r="G3" t="n">
-        <v>23.27</v>
+        <v>23.55</v>
       </c>
       <c r="H3" t="n">
-        <v>42.28</v>
+        <v>42.2</v>
       </c>
       <c r="I3" t="n">
-        <v>35.91</v>
+        <v>31.1</v>
       </c>
       <c r="J3" t="n">
-        <v>40.63</v>
+        <v>40.04</v>
       </c>
       <c r="K3" t="n">
-        <v>47.31</v>
+        <v>25.15</v>
       </c>
     </row>
     <row r="4">
@@ -789,34 +1060,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.43</v>
+        <v>46.14</v>
       </c>
       <c r="C4" t="n">
-        <v>29.65</v>
+        <v>20.17</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>22.29</v>
+        <v>23.45</v>
       </c>
       <c r="F4" t="n">
-        <v>27.23</v>
+        <v>29.72</v>
       </c>
       <c r="G4" t="n">
-        <v>41.14</v>
+        <v>18.35</v>
       </c>
       <c r="H4" t="n">
-        <v>23.26</v>
+        <v>51.43</v>
       </c>
       <c r="I4" t="n">
-        <v>42.39</v>
+        <v>23.2</v>
       </c>
       <c r="J4" t="n">
-        <v>49.84</v>
+        <v>35</v>
       </c>
       <c r="K4" t="n">
-        <v>41.86</v>
+        <v>39.62</v>
       </c>
     </row>
     <row r="5">
@@ -824,34 +1095,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39.92</v>
+        <v>28.31</v>
       </c>
       <c r="C5" t="n">
-        <v>8.31</v>
+        <v>10.34</v>
       </c>
       <c r="D5" t="n">
-        <v>22.29</v>
+        <v>23.45</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>19.97</v>
+        <v>11.4</v>
       </c>
       <c r="G5" t="n">
-        <v>22.99</v>
+        <v>17.99</v>
       </c>
       <c r="H5" t="n">
-        <v>34.08</v>
+        <v>32.09</v>
       </c>
       <c r="I5" t="n">
-        <v>32.06</v>
+        <v>25.16</v>
       </c>
       <c r="J5" t="n">
-        <v>37.92</v>
+        <v>31.99</v>
       </c>
       <c r="K5" t="n">
-        <v>41.01</v>
+        <v>16.56</v>
       </c>
     </row>
     <row r="6">
@@ -859,34 +1130,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23.58</v>
+        <v>17.42</v>
       </c>
       <c r="C6" t="n">
-        <v>26.28</v>
+        <v>21.68</v>
       </c>
       <c r="D6" t="n">
-        <v>27.23</v>
+        <v>29.72</v>
       </c>
       <c r="E6" t="n">
-        <v>19.97</v>
+        <v>11.4</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>18.56</v>
+        <v>16.14</v>
       </c>
       <c r="H6" t="n">
-        <v>21.87</v>
+        <v>22.01</v>
       </c>
       <c r="I6" t="n">
-        <v>15.19</v>
+        <v>20.94</v>
       </c>
       <c r="J6" t="n">
-        <v>22.61</v>
+        <v>23.7</v>
       </c>
       <c r="K6" t="n">
-        <v>21.11</v>
+        <v>12.97</v>
       </c>
     </row>
     <row r="7">
@@ -894,34 +1165,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>41.08</v>
+        <v>29.46</v>
       </c>
       <c r="C7" t="n">
-        <v>23.27</v>
+        <v>23.55</v>
       </c>
       <c r="D7" t="n">
-        <v>41.14</v>
+        <v>18.35</v>
       </c>
       <c r="E7" t="n">
-        <v>22.99</v>
+        <v>17.99</v>
       </c>
       <c r="F7" t="n">
-        <v>18.56</v>
+        <v>16.14</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>40.42</v>
+        <v>35.28</v>
       </c>
       <c r="I7" t="n">
-        <v>16.59</v>
+        <v>7.55</v>
       </c>
       <c r="J7" t="n">
-        <v>18.6</v>
+        <v>17.71</v>
       </c>
       <c r="K7" t="n">
-        <v>33.23</v>
+        <v>28.86</v>
       </c>
     </row>
     <row r="8">
@@ -929,34 +1200,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9.49</v>
+        <v>6.13</v>
       </c>
       <c r="C8" t="n">
-        <v>42.28</v>
+        <v>42.2</v>
       </c>
       <c r="D8" t="n">
-        <v>23.26</v>
+        <v>51.43</v>
       </c>
       <c r="E8" t="n">
-        <v>34.08</v>
+        <v>32.09</v>
       </c>
       <c r="F8" t="n">
-        <v>21.87</v>
+        <v>22.01</v>
       </c>
       <c r="G8" t="n">
-        <v>40.42</v>
+        <v>35.28</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>32.28</v>
+        <v>36.49</v>
       </c>
       <c r="J8" t="n">
-        <v>39.51</v>
+        <v>31.29</v>
       </c>
       <c r="K8" t="n">
-        <v>22.85</v>
+        <v>19.28</v>
       </c>
     </row>
     <row r="9">
@@ -964,34 +1235,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>29.42</v>
+        <v>30.39</v>
       </c>
       <c r="C9" t="n">
-        <v>35.91</v>
+        <v>31.1</v>
       </c>
       <c r="D9" t="n">
-        <v>42.39</v>
+        <v>23.2</v>
       </c>
       <c r="E9" t="n">
-        <v>32.06</v>
+        <v>25.16</v>
       </c>
       <c r="F9" t="n">
-        <v>15.19</v>
+        <v>20.94</v>
       </c>
       <c r="G9" t="n">
-        <v>16.59</v>
+        <v>7.55</v>
       </c>
       <c r="H9" t="n">
-        <v>32.28</v>
+        <v>36.49</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.61</v>
+        <v>11.87</v>
       </c>
       <c r="K9" t="n">
-        <v>17.77</v>
+        <v>33.89</v>
       </c>
     </row>
     <row r="10">
@@ -999,34 +1270,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>35.79</v>
+        <v>25.36</v>
       </c>
       <c r="C10" t="n">
-        <v>40.63</v>
+        <v>40.04</v>
       </c>
       <c r="D10" t="n">
-        <v>49.84</v>
+        <v>35</v>
       </c>
       <c r="E10" t="n">
-        <v>37.92</v>
+        <v>31.99</v>
       </c>
       <c r="F10" t="n">
-        <v>22.61</v>
+        <v>23.7</v>
       </c>
       <c r="G10" t="n">
-        <v>18.6</v>
+        <v>17.71</v>
       </c>
       <c r="H10" t="n">
-        <v>39.51</v>
+        <v>31.29</v>
       </c>
       <c r="I10" t="n">
-        <v>7.61</v>
+        <v>11.87</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.25</v>
+        <v>35.28</v>
       </c>
     </row>
     <row r="11">
@@ -1034,31 +1305,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15.64</v>
+        <v>18.31</v>
       </c>
       <c r="C11" t="n">
-        <v>47.31</v>
+        <v>25.15</v>
       </c>
       <c r="D11" t="n">
-        <v>41.86</v>
+        <v>39.62</v>
       </c>
       <c r="E11" t="n">
-        <v>41.01</v>
+        <v>16.56</v>
       </c>
       <c r="F11" t="n">
-        <v>21.11</v>
+        <v>12.97</v>
       </c>
       <c r="G11" t="n">
-        <v>33.23</v>
+        <v>28.86</v>
       </c>
       <c r="H11" t="n">
-        <v>22.85</v>
+        <v>19.28</v>
       </c>
       <c r="I11" t="n">
-        <v>17.77</v>
+        <v>33.89</v>
       </c>
       <c r="J11" t="n">
-        <v>22.25</v>
+        <v>35.28</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1096,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17.69703525943122</v>
+        <v>28.68543675338222</v>
       </c>
       <c r="C2" t="n">
-        <v>-14.57922610684144</v>
+        <v>16.9281144471673</v>
       </c>
     </row>
     <row r="3">
@@ -1107,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-9.082400160088328</v>
+        <v>-9.900689880912665</v>
       </c>
       <c r="C3" t="n">
-        <v>24.9191963935443</v>
+        <v>18.45023823685343</v>
       </c>
     </row>
     <row r="4">
@@ -1118,10 +1389,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.70174363574282</v>
+        <v>-13.67197995638885</v>
       </c>
       <c r="C4" t="n">
-        <v>17.79014130924765</v>
+        <v>-1.367818955273637</v>
       </c>
     </row>
     <row r="5">
@@ -1129,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.496436087320298</v>
+        <v>0.3834771942846835</v>
       </c>
       <c r="C5" t="n">
-        <v>19.85756176225064</v>
+        <v>17.40109230845347</v>
       </c>
     </row>
     <row r="6">
@@ -1140,10 +1411,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.8706866988916503</v>
+        <v>11.42663930767337</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.04790658590860364</v>
+        <v>14.55764093106925</v>
       </c>
     </row>
     <row r="7">
@@ -1151,10 +1422,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-19.01218301235607</v>
+        <v>4.628883488913368</v>
       </c>
       <c r="C7" t="n">
-        <v>3.870006335257475</v>
+        <v>-0.08410717564291391</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1433,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20.32109437642706</v>
+        <v>32.1460382711324</v>
       </c>
       <c r="C8" t="n">
-        <v>-5.458394654483495</v>
+        <v>21.98724819184307</v>
       </c>
     </row>
     <row r="9">
@@ -1173,10 +1444,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-11.49055936615146</v>
+        <v>9.011455893724849</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.91311437975988</v>
+        <v>-6.237719764071629</v>
       </c>
     </row>
     <row r="10">
@@ -1184,10 +1455,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-18.09121134379015</v>
+        <v>20.84441414794315</v>
       </c>
       <c r="C10" t="n">
-        <v>-14.70230490531823</v>
+        <v>-7.194177062540295</v>
       </c>
     </row>
     <row r="11">
@@ -1195,10 +1466,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.323603396996855</v>
+        <v>13.62892777043679</v>
       </c>
       <c r="C11" t="n">
-        <v>-20.73595916798842</v>
+        <v>27.33977974403446</v>
       </c>
     </row>
   </sheetData>
@@ -1260,31 +1531,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>7.7</v>
+        <v>19.74</v>
       </c>
       <c r="D2" t="n">
-        <v>36.38</v>
+        <v>27.5</v>
       </c>
       <c r="E2" t="n">
-        <v>38.95</v>
+        <v>17.89</v>
       </c>
       <c r="F2" t="n">
-        <v>21.83</v>
+        <v>6.93</v>
       </c>
       <c r="G2" t="n">
-        <v>38.95</v>
+        <v>27.43</v>
       </c>
       <c r="H2" t="n">
-        <v>19.69</v>
+        <v>11.87</v>
       </c>
       <c r="I2" t="n">
-        <v>33.81</v>
+        <v>6.32</v>
       </c>
       <c r="J2" t="n">
-        <v>21.83</v>
+        <v>8.6</v>
       </c>
       <c r="K2" t="n">
-        <v>20.54</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="3">
@@ -1292,34 +1563,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.7</v>
+        <v>19.74</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>33.81</v>
+        <v>7.76</v>
       </c>
       <c r="E3" t="n">
-        <v>32.53</v>
+        <v>1.85</v>
       </c>
       <c r="F3" t="n">
-        <v>17.55</v>
+        <v>12.81</v>
       </c>
       <c r="G3" t="n">
-        <v>30.82</v>
+        <v>7.69</v>
       </c>
       <c r="H3" t="n">
-        <v>19.69</v>
+        <v>7.87</v>
       </c>
       <c r="I3" t="n">
-        <v>26.96</v>
+        <v>13.42</v>
       </c>
       <c r="J3" t="n">
-        <v>13.7</v>
+        <v>11.14</v>
       </c>
       <c r="K3" t="n">
-        <v>23.97</v>
+        <v>25.65</v>
       </c>
     </row>
     <row r="4">
@@ -1327,34 +1598,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36.38</v>
+        <v>27.5</v>
       </c>
       <c r="C4" t="n">
-        <v>33.81</v>
+        <v>7.76</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>24.4</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>17.55</v>
+        <v>20.57</v>
       </c>
       <c r="G4" t="n">
-        <v>44.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>53.5</v>
+        <v>15.63</v>
       </c>
       <c r="I4" t="n">
-        <v>23.11</v>
+        <v>21.18</v>
       </c>
       <c r="J4" t="n">
-        <v>35.1</v>
+        <v>18.91</v>
       </c>
       <c r="K4" t="n">
-        <v>23.97</v>
+        <v>33.41</v>
       </c>
     </row>
     <row r="5">
@@ -1362,34 +1633,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38.95</v>
+        <v>17.89</v>
       </c>
       <c r="C5" t="n">
-        <v>32.53</v>
+        <v>1.85</v>
       </c>
       <c r="D5" t="n">
-        <v>24.4</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>18.83</v>
+        <v>10.96</v>
       </c>
       <c r="G5" t="n">
-        <v>22.68</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>48.36</v>
+        <v>6.02</v>
       </c>
       <c r="I5" t="n">
-        <v>5.14</v>
+        <v>11.57</v>
       </c>
       <c r="J5" t="n">
-        <v>23.11</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>39.8</v>
+        <v>23.79</v>
       </c>
     </row>
     <row r="6">
@@ -1397,34 +1668,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>21.83</v>
+        <v>6.93</v>
       </c>
       <c r="C6" t="n">
-        <v>17.55</v>
+        <v>12.81</v>
       </c>
       <c r="D6" t="n">
-        <v>17.55</v>
+        <v>20.57</v>
       </c>
       <c r="E6" t="n">
-        <v>18.83</v>
+        <v>10.96</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>29.96</v>
+        <v>20.5</v>
       </c>
       <c r="H6" t="n">
-        <v>36.81</v>
+        <v>4.93</v>
       </c>
       <c r="I6" t="n">
-        <v>14.12</v>
+        <v>0.61</v>
       </c>
       <c r="J6" t="n">
-        <v>17.55</v>
+        <v>1.66</v>
       </c>
       <c r="K6" t="n">
-        <v>21.4</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="7">
@@ -1432,34 +1703,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>38.95</v>
+        <v>27.43</v>
       </c>
       <c r="C7" t="n">
-        <v>30.82</v>
+        <v>7.69</v>
       </c>
       <c r="D7" t="n">
-        <v>44.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>22.68</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>29.96</v>
+        <v>20.5</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>37.66</v>
+        <v>15.56</v>
       </c>
       <c r="I7" t="n">
-        <v>21.4</v>
+        <v>21.11</v>
       </c>
       <c r="J7" t="n">
-        <v>17.12</v>
+        <v>18.84</v>
       </c>
       <c r="K7" t="n">
-        <v>49.65</v>
+        <v>33.34</v>
       </c>
     </row>
     <row r="8">
@@ -1467,34 +1738,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19.69</v>
+        <v>11.87</v>
       </c>
       <c r="C8" t="n">
-        <v>19.69</v>
+        <v>7.87</v>
       </c>
       <c r="D8" t="n">
-        <v>53.5</v>
+        <v>15.63</v>
       </c>
       <c r="E8" t="n">
-        <v>48.36</v>
+        <v>6.02</v>
       </c>
       <c r="F8" t="n">
-        <v>36.81</v>
+        <v>4.93</v>
       </c>
       <c r="G8" t="n">
-        <v>37.66</v>
+        <v>15.56</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>43.23</v>
+        <v>5.55</v>
       </c>
       <c r="J8" t="n">
-        <v>25.25</v>
+        <v>3.27</v>
       </c>
       <c r="K8" t="n">
-        <v>40.23</v>
+        <v>17.77</v>
       </c>
     </row>
     <row r="9">
@@ -1502,34 +1773,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>33.81</v>
+        <v>6.32</v>
       </c>
       <c r="C9" t="n">
-        <v>26.96</v>
+        <v>13.42</v>
       </c>
       <c r="D9" t="n">
-        <v>23.11</v>
+        <v>21.18</v>
       </c>
       <c r="E9" t="n">
-        <v>5.14</v>
+        <v>11.57</v>
       </c>
       <c r="F9" t="n">
-        <v>14.12</v>
+        <v>0.61</v>
       </c>
       <c r="G9" t="n">
-        <v>21.4</v>
+        <v>21.11</v>
       </c>
       <c r="H9" t="n">
-        <v>43.23</v>
+        <v>5.55</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>18.4</v>
+        <v>2.28</v>
       </c>
       <c r="K9" t="n">
-        <v>35.52</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="10">
@@ -1537,34 +1808,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21.83</v>
+        <v>8.6</v>
       </c>
       <c r="C10" t="n">
-        <v>13.7</v>
+        <v>11.14</v>
       </c>
       <c r="D10" t="n">
-        <v>35.1</v>
+        <v>18.91</v>
       </c>
       <c r="E10" t="n">
-        <v>23.11</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>17.55</v>
+        <v>1.66</v>
       </c>
       <c r="G10" t="n">
-        <v>17.12</v>
+        <v>18.84</v>
       </c>
       <c r="H10" t="n">
-        <v>25.25</v>
+        <v>3.27</v>
       </c>
       <c r="I10" t="n">
-        <v>18.4</v>
+        <v>2.28</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>34.24</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="11">
@@ -1572,31 +1843,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20.54</v>
+        <v>5.91</v>
       </c>
       <c r="C11" t="n">
-        <v>23.97</v>
+        <v>25.65</v>
       </c>
       <c r="D11" t="n">
-        <v>23.97</v>
+        <v>33.41</v>
       </c>
       <c r="E11" t="n">
-        <v>39.8</v>
+        <v>23.79</v>
       </c>
       <c r="F11" t="n">
-        <v>21.4</v>
+        <v>12.84</v>
       </c>
       <c r="G11" t="n">
-        <v>49.65</v>
+        <v>33.34</v>
       </c>
       <c r="H11" t="n">
-        <v>40.23</v>
+        <v>17.77</v>
       </c>
       <c r="I11" t="n">
-        <v>35.52</v>
+        <v>12.23</v>
       </c>
       <c r="J11" t="n">
-        <v>34.24</v>
+        <v>14.5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1634,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0795488363244909</v>
+        <v>-3.175802299755585</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.4205550934730852</v>
+        <v>-3.175802299755368</v>
       </c>
     </row>
     <row r="3">
@@ -1645,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.02796343784627699</v>
+        <v>-17.13421245211006</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.272274989966859</v>
+        <v>-17.13421245211621</v>
       </c>
     </row>
     <row r="4">
@@ -1656,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5184460563726955</v>
+        <v>-22.622712749515</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3041807697033371</v>
+        <v>-22.6227127495105</v>
       </c>
     </row>
     <row r="5">
@@ -1667,10 +1938,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.02667491209540838</v>
+        <v>-15.82451028180579</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4827970244250693</v>
+        <v>-15.82451028180854</v>
       </c>
     </row>
     <row r="6">
@@ -1678,10 +1949,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1669948049336782</v>
+        <v>-8.078123966154008</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08597131358164845</v>
+        <v>-8.07812396615399</v>
       </c>
     </row>
     <row r="7">
@@ -1689,10 +1960,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.512223728930059</v>
+        <v>-22.57331569442808</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2667233367785843</v>
+        <v>-22.5733156944269</v>
       </c>
     </row>
     <row r="8">
@@ -1700,10 +1971,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.3468753112038713</v>
+        <v>-11.56768055373505</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.6001448624482619</v>
+        <v>-11.56768055373375</v>
       </c>
     </row>
     <row r="9">
@@ -1711,10 +1982,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.0209949196549497</v>
+        <v>-7.644569123311732</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3581339174990106</v>
+        <v>-7.644569123309402</v>
       </c>
     </row>
     <row r="10">
@@ -1722,10 +1993,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.2312428412194227</v>
+        <v>-9.254177420822927</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.01933155712663749</v>
+        <v>-9.25417742081809</v>
       </c>
     </row>
     <row r="11">
@@ -1733,10 +2004,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.52764921893381</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2582263724578139</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1798,31 +2069,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>37.15</v>
+        <v>47.72</v>
       </c>
       <c r="D2" t="n">
-        <v>43.03</v>
+        <v>32.43</v>
       </c>
       <c r="E2" t="n">
-        <v>24.24</v>
+        <v>39.92</v>
       </c>
       <c r="F2" t="n">
-        <v>17.56</v>
+        <v>23.58</v>
       </c>
       <c r="G2" t="n">
-        <v>36.9</v>
+        <v>41.08</v>
       </c>
       <c r="H2" t="n">
-        <v>9.23</v>
+        <v>9.49</v>
       </c>
       <c r="I2" t="n">
-        <v>34.43</v>
+        <v>29.42</v>
       </c>
       <c r="J2" t="n">
-        <v>32.37</v>
+        <v>35.8</v>
       </c>
       <c r="K2" t="n">
-        <v>12.49</v>
+        <v>15.64</v>
       </c>
     </row>
     <row r="3">
@@ -1830,34 +2101,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>37.15</v>
+        <v>47.72</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>15.54</v>
+        <v>29.65</v>
       </c>
       <c r="E3" t="n">
-        <v>13.51</v>
+        <v>8.31</v>
       </c>
       <c r="F3" t="n">
-        <v>21.07</v>
+        <v>26.29</v>
       </c>
       <c r="G3" t="n">
-        <v>10.75</v>
+        <v>23.27</v>
       </c>
       <c r="H3" t="n">
-        <v>38.68</v>
+        <v>42.28</v>
       </c>
       <c r="I3" t="n">
-        <v>6.81</v>
+        <v>35.92</v>
       </c>
       <c r="J3" t="n">
-        <v>11.95</v>
+        <v>40.63</v>
       </c>
       <c r="K3" t="n">
-        <v>33.17</v>
+        <v>47.31</v>
       </c>
     </row>
     <row r="4">
@@ -1865,34 +2136,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>43.03</v>
+        <v>32.43</v>
       </c>
       <c r="C4" t="n">
-        <v>15.54</v>
+        <v>29.65</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>20.18</v>
+        <v>22.29</v>
       </c>
       <c r="F4" t="n">
-        <v>31.19</v>
+        <v>27.23</v>
       </c>
       <c r="G4" t="n">
-        <v>6.74</v>
+        <v>41.14</v>
       </c>
       <c r="H4" t="n">
-        <v>41.11</v>
+        <v>23.26</v>
       </c>
       <c r="I4" t="n">
-        <v>22.14</v>
+        <v>42.39</v>
       </c>
       <c r="J4" t="n">
-        <v>27.04</v>
+        <v>49.84</v>
       </c>
       <c r="K4" t="n">
-        <v>43.26</v>
+        <v>41.87</v>
       </c>
     </row>
     <row r="5">
@@ -1900,34 +2171,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>24.24</v>
+        <v>39.92</v>
       </c>
       <c r="C5" t="n">
-        <v>13.51</v>
+        <v>8.31</v>
       </c>
       <c r="D5" t="n">
-        <v>20.18</v>
+        <v>22.29</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>11.19</v>
+        <v>19.97</v>
       </c>
       <c r="G5" t="n">
-        <v>13.52</v>
+        <v>22.98</v>
       </c>
       <c r="H5" t="n">
-        <v>25.16</v>
+        <v>34.08</v>
       </c>
       <c r="I5" t="n">
-        <v>13.51</v>
+        <v>32.06</v>
       </c>
       <c r="J5" t="n">
-        <v>14.92</v>
+        <v>37.91</v>
       </c>
       <c r="K5" t="n">
-        <v>23.08</v>
+        <v>41.01</v>
       </c>
     </row>
     <row r="6">
@@ -1935,34 +2206,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>17.56</v>
+        <v>23.58</v>
       </c>
       <c r="C6" t="n">
-        <v>21.07</v>
+        <v>26.29</v>
       </c>
       <c r="D6" t="n">
-        <v>31.19</v>
+        <v>27.23</v>
       </c>
       <c r="E6" t="n">
-        <v>11.19</v>
+        <v>19.97</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>24.45</v>
+        <v>18.56</v>
       </c>
       <c r="H6" t="n">
-        <v>22.46</v>
+        <v>21.87</v>
       </c>
       <c r="I6" t="n">
-        <v>17.17</v>
+        <v>15.19</v>
       </c>
       <c r="J6" t="n">
-        <v>14.82</v>
+        <v>22.61</v>
       </c>
       <c r="K6" t="n">
-        <v>12.31</v>
+        <v>21.11</v>
       </c>
     </row>
     <row r="7">
@@ -1970,34 +2241,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>36.9</v>
+        <v>41.08</v>
       </c>
       <c r="C7" t="n">
-        <v>10.75</v>
+        <v>23.27</v>
       </c>
       <c r="D7" t="n">
-        <v>6.74</v>
+        <v>41.14</v>
       </c>
       <c r="E7" t="n">
-        <v>13.52</v>
+        <v>22.98</v>
       </c>
       <c r="F7" t="n">
-        <v>24.45</v>
+        <v>18.56</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>35.79</v>
+        <v>40.42</v>
       </c>
       <c r="I7" t="n">
-        <v>16.65</v>
+        <v>16.59</v>
       </c>
       <c r="J7" t="n">
-        <v>21.2</v>
+        <v>18.59</v>
       </c>
       <c r="K7" t="n">
-        <v>36.56</v>
+        <v>33.23</v>
       </c>
     </row>
     <row r="8">
@@ -2005,34 +2276,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9.23</v>
+        <v>9.49</v>
       </c>
       <c r="C8" t="n">
-        <v>38.68</v>
+        <v>42.28</v>
       </c>
       <c r="D8" t="n">
-        <v>41.11</v>
+        <v>23.26</v>
       </c>
       <c r="E8" t="n">
-        <v>25.16</v>
+        <v>34.08</v>
       </c>
       <c r="F8" t="n">
-        <v>22.46</v>
+        <v>21.87</v>
       </c>
       <c r="G8" t="n">
-        <v>35.79</v>
+        <v>40.42</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>37.53</v>
+        <v>32.28</v>
       </c>
       <c r="J8" t="n">
-        <v>36.67</v>
+        <v>39.51</v>
       </c>
       <c r="K8" t="n">
-        <v>21.2</v>
+        <v>22.86</v>
       </c>
     </row>
     <row r="9">
@@ -2040,34 +2311,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>34.43</v>
+        <v>29.42</v>
       </c>
       <c r="C9" t="n">
-        <v>6.81</v>
+        <v>35.92</v>
       </c>
       <c r="D9" t="n">
-        <v>22.14</v>
+        <v>42.39</v>
       </c>
       <c r="E9" t="n">
-        <v>13.51</v>
+        <v>32.06</v>
       </c>
       <c r="F9" t="n">
-        <v>17.17</v>
+        <v>15.19</v>
       </c>
       <c r="G9" t="n">
-        <v>16.65</v>
+        <v>16.59</v>
       </c>
       <c r="H9" t="n">
-        <v>37.53</v>
+        <v>32.28</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>5.18</v>
+        <v>7.61</v>
       </c>
       <c r="K9" t="n">
-        <v>28.48</v>
+        <v>17.77</v>
       </c>
     </row>
     <row r="10">
@@ -2075,34 +2346,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>32.37</v>
+        <v>35.8</v>
       </c>
       <c r="C10" t="n">
-        <v>11.95</v>
+        <v>40.63</v>
       </c>
       <c r="D10" t="n">
-        <v>27.04</v>
+        <v>49.84</v>
       </c>
       <c r="E10" t="n">
-        <v>14.92</v>
+        <v>37.91</v>
       </c>
       <c r="F10" t="n">
-        <v>14.82</v>
+        <v>22.61</v>
       </c>
       <c r="G10" t="n">
-        <v>21.2</v>
+        <v>18.59</v>
       </c>
       <c r="H10" t="n">
-        <v>36.67</v>
+        <v>39.51</v>
       </c>
       <c r="I10" t="n">
-        <v>5.18</v>
+        <v>7.61</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>24.91</v>
+        <v>22.26</v>
       </c>
     </row>
     <row r="11">
@@ -2110,31 +2381,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.49</v>
+        <v>15.64</v>
       </c>
       <c r="C11" t="n">
-        <v>33.17</v>
+        <v>47.31</v>
       </c>
       <c r="D11" t="n">
-        <v>43.26</v>
+        <v>41.87</v>
       </c>
       <c r="E11" t="n">
-        <v>23.08</v>
+        <v>41.01</v>
       </c>
       <c r="F11" t="n">
-        <v>12.31</v>
+        <v>21.11</v>
       </c>
       <c r="G11" t="n">
-        <v>36.56</v>
+        <v>33.23</v>
       </c>
       <c r="H11" t="n">
-        <v>21.2</v>
+        <v>22.86</v>
       </c>
       <c r="I11" t="n">
-        <v>28.48</v>
+        <v>17.77</v>
       </c>
       <c r="J11" t="n">
-        <v>24.91</v>
+        <v>22.26</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -2172,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12.43805790863234</v>
+        <v>-1.77151977305206</v>
       </c>
       <c r="C2" t="n">
-        <v>7.122646218905775</v>
+        <v>-22.86142519611468</v>
       </c>
     </row>
     <row r="3">
@@ -2183,10 +2454,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-13.53106860512901</v>
+        <v>-11.65382256838234</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.43693183969756</v>
+        <v>23.82464349726883</v>
       </c>
     </row>
     <row r="4">
@@ -2194,10 +2465,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-4.816845929877687</v>
+        <v>-26.48030687756017</v>
       </c>
       <c r="C4" t="n">
-        <v>-32.30006300101772</v>
+        <v>-1.851478051463405</v>
       </c>
     </row>
     <row r="5">
@@ -2205,10 +2476,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.051575411540906</v>
+        <v>-12.57217479025565</v>
       </c>
       <c r="C5" t="n">
-        <v>-12.30716293246495</v>
+        <v>15.57026331726271</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2487,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-3.038999956935677</v>
+        <v>0.6408909228474212</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.16355620849499</v>
+        <v>0.5903327989057797</v>
       </c>
     </row>
     <row r="7">
@@ -2227,10 +2498,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-4.697862227359314</v>
+        <v>10.39551921461629</v>
       </c>
       <c r="C7" t="n">
-        <v>-25.56200413142358</v>
+        <v>16.37928466364874</v>
       </c>
     </row>
     <row r="8">
@@ -2238,10 +2509,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19.31978609119247</v>
+        <v>-10.16380434306917</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9745604739502612</v>
+        <v>-18.42426063432274</v>
       </c>
     </row>
     <row r="9">
@@ -2249,10 +2520,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-15.54348769861015</v>
+        <v>15.83317889943649</v>
       </c>
       <c r="C9" t="n">
-        <v>-12.93206923127561</v>
+        <v>0.7044504545531162</v>
       </c>
     </row>
     <row r="10">
@@ -2260,10 +2531,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-16.28174818428447</v>
+        <v>23.13800430239099</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.808962815546215</v>
+        <v>2.845467080887528</v>
       </c>
     </row>
     <row r="11">
@@ -2271,10 +2542,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4525517724110251</v>
+        <v>12.6340350130282</v>
       </c>
       <c r="C11" t="n">
-        <v>10.6362327255316</v>
+        <v>-16.77727793062588</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,40 +2568,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -2338,25 +2604,349 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001614093780517578</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001361370086669922</v>
+        <v>53.13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3717341423034668</v>
+        <v>39.96</v>
       </c>
       <c r="E2" t="n">
-        <v>1.392243385314941</v>
+        <v>33.81</v>
       </c>
       <c r="F2" t="n">
-        <v>0.132439136505127</v>
+        <v>23.27</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07721853256225586</v>
+        <v>39.96</v>
       </c>
       <c r="H2" t="n">
-        <v>1.824313163757324</v>
+        <v>17.12</v>
+      </c>
+      <c r="I2" t="n">
+        <v>23.27</v>
+      </c>
+      <c r="J2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K2" t="n">
+        <v>21.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>53.13</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.22</v>
+      </c>
+      <c r="E3" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="F3" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="H3" t="n">
+        <v>45.22</v>
+      </c>
+      <c r="I3" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="J3" t="n">
+        <v>36</v>
+      </c>
+      <c r="K3" t="n">
+        <v>52.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>39.96</v>
+      </c>
+      <c r="C4" t="n">
+        <v>27.22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="F4" t="n">
+        <v>38.64</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25.47</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25.47</v>
+      </c>
+      <c r="I4" t="n">
+        <v>29.42</v>
+      </c>
+      <c r="J4" t="n">
+        <v>45.22</v>
+      </c>
+      <c r="K4" t="n">
+        <v>50.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>33.81</v>
+      </c>
+      <c r="C5" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>26.34</v>
+      </c>
+      <c r="G5" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="H5" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>17.12</v>
+      </c>
+      <c r="J5" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="K5" t="n">
+        <v>39.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>23.27</v>
+      </c>
+      <c r="C6" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>38.64</v>
+      </c>
+      <c r="E6" t="n">
+        <v>26.34</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="H6" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="K6" t="n">
+        <v>14.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>39.96</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="D7" t="n">
+        <v>25.47</v>
+      </c>
+      <c r="E7" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="F7" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>35.13</v>
+      </c>
+      <c r="I7" t="n">
+        <v>17.56</v>
+      </c>
+      <c r="J7" t="n">
+        <v>23.27</v>
+      </c>
+      <c r="K7" t="n">
+        <v>38.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>17.12</v>
+      </c>
+      <c r="C8" t="n">
+        <v>45.22</v>
+      </c>
+      <c r="D8" t="n">
+        <v>25.47</v>
+      </c>
+      <c r="E8" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="F8" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="G8" t="n">
+        <v>35.13</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="K8" t="n">
+        <v>34.69</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>23.27</v>
+      </c>
+      <c r="C9" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="D9" t="n">
+        <v>29.42</v>
+      </c>
+      <c r="E9" t="n">
+        <v>17.12</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>17.56</v>
+      </c>
+      <c r="H9" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>18</v>
+      </c>
+      <c r="K9" t="n">
+        <v>21.95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>36</v>
+      </c>
+      <c r="C10" t="n">
+        <v>36</v>
+      </c>
+      <c r="D10" t="n">
+        <v>45.22</v>
+      </c>
+      <c r="E10" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="G10" t="n">
+        <v>23.27</v>
+      </c>
+      <c r="H10" t="n">
+        <v>41.71</v>
+      </c>
+      <c r="I10" t="n">
+        <v>18</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>21.95</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="C11" t="n">
+        <v>52.69</v>
+      </c>
+      <c r="D11" t="n">
+        <v>50.05</v>
+      </c>
+      <c r="E11" t="n">
+        <v>39.08</v>
+      </c>
+      <c r="F11" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="G11" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="I11" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="J11" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2379,262 +2969,522 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>estimation_technique</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>max_error</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>max_percent_error</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>avg_error</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>avg_percent_error</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>true_pos_rate</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>false_pos_rate</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>runtime</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0.5555531976001703</v>
       </c>
       <c r="C2" t="n">
-        <v>28.41</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6131508678237649</v>
-      </c>
-      <c r="E2" t="n">
-        <v>7.472000000000001</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.2598986869124116</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0001614093780517578</v>
+        <v>-0.07206968012560584</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
+      <c r="B3" t="n">
+        <v>-0.6560542846350359</v>
       </c>
       <c r="C3" t="n">
-        <v>19.035</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6131508678237649</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5.13488888888889</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1901397852935559</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0001361370086669922</v>
+        <v>-0.06414907064023032</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
+      <c r="B4" t="n">
+        <v>-0.232930981056149</v>
       </c>
       <c r="C4" t="n">
-        <v>44.2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9563511525257479</v>
-      </c>
-      <c r="E4" t="n">
-        <v>14.05288888888889</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.4491281790904741</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.3717341423034668</v>
+        <v>-0.5225462905057001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
+      <c r="B5" t="n">
+        <v>-0.1958375997232651</v>
       </c>
       <c r="C5" t="n">
-        <v>48.56</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9443796188253598</v>
-      </c>
-      <c r="E5" t="n">
-        <v>14.19488888888889</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.4566965440949514</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.392243385314941</v>
+        <v>-0.2163246580346171</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0.1511605343690387</v>
       </c>
       <c r="C6" t="n">
-        <v>11.22</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.7167947310647642</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.154000000000001</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1287977367428299</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.132439136505127</v>
+        <v>0.2714021370950885</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
+      <c r="B7" t="n">
+        <v>-0.3444551561048248</v>
       </c>
       <c r="C7" t="n">
-        <v>35.72</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.204800000000001</v>
-      </c>
-      <c r="E7" t="n">
-        <v>11.75533333333333</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.5004144974651495</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.07721853256225586</v>
+        <v>0.04884062051264104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B8" t="n">
+        <v>0.3283199321775898</v>
       </c>
       <c r="C8" t="n">
-        <v>44.68</v>
+        <v>-0.3832677078462818</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.05143456510062022</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.08638455042439475</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.04457440034856502</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4862665572494351</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.4502846696808709</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3950340221768274</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>40.36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>53.33</v>
+      </c>
+      <c r="E2" t="n">
+        <v>27.81</v>
+      </c>
+      <c r="F2" t="n">
+        <v>17.39</v>
+      </c>
+      <c r="G2" t="n">
+        <v>38.98</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="I2" t="n">
+        <v>34.24</v>
+      </c>
+      <c r="J2" t="n">
+        <v>27.67</v>
+      </c>
+      <c r="K2" t="n">
+        <v>9.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>40.36</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="F3" t="n">
+        <v>28.86</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="H3" t="n">
+        <v>33.55</v>
+      </c>
+      <c r="I3" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="J3" t="n">
+        <v>28.32</v>
+      </c>
+      <c r="K3" t="n">
+        <v>43.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>53.33</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>38.64</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="H4" t="n">
+        <v>48.08</v>
+      </c>
+      <c r="I4" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="J4" t="n">
+        <v>33.69</v>
+      </c>
+      <c r="K4" t="n">
+        <v>54.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>27.81</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>17.43</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="H5" t="n">
+        <v>21.68</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="J5" t="n">
+        <v>20.38</v>
+      </c>
+      <c r="K5" t="n">
+        <v>30.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>17.39</v>
+      </c>
+      <c r="C6" t="n">
+        <v>28.86</v>
+      </c>
+      <c r="D6" t="n">
+        <v>38.64</v>
+      </c>
+      <c r="E6" t="n">
+        <v>17.43</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="H6" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>17.43</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>38.98</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="F7" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>35.49</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="J7" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="K7" t="n">
+        <v>38.86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="C8" t="n">
+        <v>33.55</v>
       </c>
       <c r="D8" t="n">
-        <v>1.1616</v>
+        <v>48.08</v>
       </c>
       <c r="E8" t="n">
-        <v>9.997555555555556</v>
+        <v>21.68</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3353160905919373</v>
+        <v>18.9</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>35.49</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.824313163757324</v>
+        <v>32.41</v>
+      </c>
+      <c r="J8" t="n">
+        <v>29.14</v>
+      </c>
+      <c r="K8" t="n">
+        <v>18.71</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>34.24</v>
+      </c>
+      <c r="C9" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="D9" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="F9" t="n">
+        <v>17.43</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="H9" t="n">
+        <v>32.41</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="K9" t="n">
+        <v>32.96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>27.67</v>
+      </c>
+      <c r="C10" t="n">
+        <v>28.32</v>
+      </c>
+      <c r="D10" t="n">
+        <v>33.69</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20.38</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="G10" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="H10" t="n">
+        <v>29.14</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>24.05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="C11" t="n">
+        <v>43.28</v>
+      </c>
+      <c r="D11" t="n">
+        <v>54.25</v>
+      </c>
+      <c r="E11" t="n">
+        <v>30.92</v>
+      </c>
+      <c r="F11" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="G11" t="n">
+        <v>38.86</v>
+      </c>
+      <c r="H11" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="I11" t="n">
+        <v>32.96</v>
+      </c>
+      <c r="J11" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3040,6 +3890,1325 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>15.09617548335586</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8.989388811566867</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-9.615382428541499</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-22.92592783876161</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-25.30977121971866</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-25.81275899049884</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-2.472433025379844</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-12.57108407038318</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.796056212420746</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.850027912523338</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-17.82355519453994</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-11.88187889468148</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>16.06211922926805</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.32522196577991</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-16.12744650526973</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-5.068622821608569</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-12.31955272397558</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.266844806026091</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9.167474409020613</v>
+      </c>
+      <c r="C11" t="n">
+        <v>16.06977666819812</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34.29</v>
+      </c>
+      <c r="E2" t="n">
+        <v>44.57</v>
+      </c>
+      <c r="F2" t="n">
+        <v>32.33</v>
+      </c>
+      <c r="G2" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="I2" t="n">
+        <v>48</v>
+      </c>
+      <c r="J2" t="n">
+        <v>49.47</v>
+      </c>
+      <c r="K2" t="n">
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="F3" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25.96</v>
+      </c>
+      <c r="H3" t="n">
+        <v>42.12</v>
+      </c>
+      <c r="I3" t="n">
+        <v>48</v>
+      </c>
+      <c r="J3" t="n">
+        <v>45.06</v>
+      </c>
+      <c r="K3" t="n">
+        <v>46.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>34.29</v>
+      </c>
+      <c r="C4" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25.47</v>
+      </c>
+      <c r="I4" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>26.94</v>
+      </c>
+      <c r="K4" t="n">
+        <v>23.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>44.57</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>27.92</v>
+      </c>
+      <c r="G5" t="n">
+        <v>27.43</v>
+      </c>
+      <c r="H5" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>49.47</v>
+      </c>
+      <c r="J5" t="n">
+        <v>47.02</v>
+      </c>
+      <c r="K5" t="n">
+        <v>41.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>32.33</v>
+      </c>
+      <c r="C6" t="n">
+        <v>29.88</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="E6" t="n">
+        <v>27.92</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="H6" t="n">
+        <v>24.98</v>
+      </c>
+      <c r="I6" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="J6" t="n">
+        <v>23.02</v>
+      </c>
+      <c r="K6" t="n">
+        <v>18.61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="C7" t="n">
+        <v>25.96</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="E7" t="n">
+        <v>27.43</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="J7" t="n">
+        <v>19.59</v>
+      </c>
+      <c r="K7" t="n">
+        <v>27.43</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="C8" t="n">
+        <v>42.12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>25.47</v>
+      </c>
+      <c r="E8" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="F8" t="n">
+        <v>24.98</v>
+      </c>
+      <c r="G8" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>44.57</v>
+      </c>
+      <c r="J8" t="n">
+        <v>45.06</v>
+      </c>
+      <c r="K8" t="n">
+        <v>18.12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>48</v>
+      </c>
+      <c r="C9" t="n">
+        <v>48</v>
+      </c>
+      <c r="D9" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>49.47</v>
+      </c>
+      <c r="F9" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="G9" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="H9" t="n">
+        <v>44.57</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="K9" t="n">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>49.47</v>
+      </c>
+      <c r="C10" t="n">
+        <v>45.06</v>
+      </c>
+      <c r="D10" t="n">
+        <v>26.94</v>
+      </c>
+      <c r="E10" t="n">
+        <v>47.02</v>
+      </c>
+      <c r="F10" t="n">
+        <v>23.02</v>
+      </c>
+      <c r="G10" t="n">
+        <v>19.59</v>
+      </c>
+      <c r="H10" t="n">
+        <v>45.06</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>30.86</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>46.53</v>
+      </c>
+      <c r="D11" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="E11" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="F11" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="G11" t="n">
+        <v>27.43</v>
+      </c>
+      <c r="H11" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="I11" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>30.86</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.4471183681037847</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.4282666127597762</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5849191434756468</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.1148647295852963</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1141058357377437</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.002692669801293214</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.4496705154942583</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.2873954561586118</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.001428344284415295</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.05724210599013706</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1446949460542736</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1819302987874305</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.2318816993564397</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.3922531350135971</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.1692845627927667</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5116035131270823</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.07876332301509803</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5167637710057014</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.3649141432115919</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.04206708559216406</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>55.35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="E2" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>29.81</v>
+      </c>
+      <c r="G2" t="n">
+        <v>40.59</v>
+      </c>
+      <c r="H2" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>43.09</v>
+      </c>
+      <c r="J2" t="n">
+        <v>45.05</v>
+      </c>
+      <c r="K2" t="n">
+        <v>17.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>55.35</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33.59</v>
+      </c>
+      <c r="G3" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="H3" t="n">
+        <v>43.99</v>
+      </c>
+      <c r="I3" t="n">
+        <v>48.86</v>
+      </c>
+      <c r="J3" t="n">
+        <v>46.05</v>
+      </c>
+      <c r="K3" t="n">
+        <v>52.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>35.37</v>
+      </c>
+      <c r="C4" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>17.59</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25.23</v>
+      </c>
+      <c r="I4" t="n">
+        <v>30.35</v>
+      </c>
+      <c r="J4" t="n">
+        <v>28.76</v>
+      </c>
+      <c r="K4" t="n">
+        <v>29.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.59</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>28.71</v>
+      </c>
+      <c r="G5" t="n">
+        <v>26.98</v>
+      </c>
+      <c r="H5" t="n">
+        <v>34.23</v>
+      </c>
+      <c r="I5" t="n">
+        <v>47.44</v>
+      </c>
+      <c r="J5" t="n">
+        <v>45.37</v>
+      </c>
+      <c r="K5" t="n">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>29.81</v>
+      </c>
+      <c r="C6" t="n">
+        <v>33.59</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="E6" t="n">
+        <v>28.71</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="H6" t="n">
+        <v>22.48</v>
+      </c>
+      <c r="I6" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="J6" t="n">
+        <v>20.79</v>
+      </c>
+      <c r="K6" t="n">
+        <v>19.61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>40.59</v>
+      </c>
+      <c r="C7" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="E7" t="n">
+        <v>26.98</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="I7" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="J7" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="K7" t="n">
+        <v>29.68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>43.99</v>
+      </c>
+      <c r="D8" t="n">
+        <v>25.23</v>
+      </c>
+      <c r="E8" t="n">
+        <v>34.23</v>
+      </c>
+      <c r="F8" t="n">
+        <v>22.48</v>
+      </c>
+      <c r="G8" t="n">
+        <v>32.49</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>40.26</v>
+      </c>
+      <c r="J8" t="n">
+        <v>41.25</v>
+      </c>
+      <c r="K8" t="n">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>43.09</v>
+      </c>
+      <c r="C9" t="n">
+        <v>48.86</v>
+      </c>
+      <c r="D9" t="n">
+        <v>30.35</v>
+      </c>
+      <c r="E9" t="n">
+        <v>47.44</v>
+      </c>
+      <c r="F9" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="G9" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="H9" t="n">
+        <v>40.26</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="K9" t="n">
+        <v>26.29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>45.05</v>
+      </c>
+      <c r="C10" t="n">
+        <v>46.05</v>
+      </c>
+      <c r="D10" t="n">
+        <v>28.76</v>
+      </c>
+      <c r="E10" t="n">
+        <v>45.37</v>
+      </c>
+      <c r="F10" t="n">
+        <v>20.79</v>
+      </c>
+      <c r="G10" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="H10" t="n">
+        <v>41.25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>28.78</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>17.46</v>
+      </c>
+      <c r="C11" t="n">
+        <v>52.09</v>
+      </c>
+      <c r="D11" t="n">
+        <v>29.54</v>
+      </c>
+      <c r="E11" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>19.61</v>
+      </c>
+      <c r="G11" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="H11" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>26.29</v>
+      </c>
+      <c r="J11" t="n">
+        <v>28.78</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-31.88148482649289</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-32.99514245293973</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>49.70355891295976</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-2.51464533755187</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14.12339909075228</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.678175420381841</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>38.04038129810477</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-15.58913872447954</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-2.773582337948131</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.794377276074317</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9.386927885544145</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15.73430116973896</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-13.92011217024035</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-29.77500982833817</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-18.26082251764233</v>
+      </c>
+      <c r="C9" t="n">
+        <v>33.42666350023789</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-12.22015023734239</v>
+      </c>
+      <c r="C10" t="n">
+        <v>35.11295459103093</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-32.19811509769493</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-5.516184773390939</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>rss_pre_averaged</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>spring_model_5inits</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>lle</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>isomap</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0002715587615966797</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0002694129943847656</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0002791881561279297</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.847561359405518</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.816421747207642</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1801352500915527</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.3037974834442139</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.782724142074585</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01282620429992676</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.008951663970947266</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -5344,31 +7513,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>48.33</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>48.33</v>
+        <v>24.62</v>
       </c>
       <c r="E2" t="n">
-        <v>48.33</v>
+        <v>8.31</v>
       </c>
       <c r="F2" t="n">
-        <v>18.19</v>
+        <v>17.34</v>
       </c>
       <c r="G2" t="n">
-        <v>36.61</v>
+        <v>18.05</v>
       </c>
       <c r="H2" t="n">
-        <v>11.26</v>
+        <v>15.33</v>
       </c>
       <c r="I2" t="n">
-        <v>36.09</v>
+        <v>10.38</v>
       </c>
       <c r="J2" t="n">
-        <v>48.33</v>
+        <v>14.26</v>
       </c>
       <c r="K2" t="n">
-        <v>13.03</v>
+        <v>16.11</v>
       </c>
     </row>
     <row r="3">
@@ -5376,34 +7545,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>48.33</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>41.54</v>
+        <v>32.35</v>
       </c>
       <c r="E3" t="n">
-        <v>5.48</v>
+        <v>7.89</v>
       </c>
       <c r="F3" t="n">
-        <v>25.02</v>
+        <v>25.17</v>
       </c>
       <c r="G3" t="n">
-        <v>30.75</v>
+        <v>16.58</v>
       </c>
       <c r="H3" t="n">
-        <v>37.47</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>41.54</v>
+        <v>12.5</v>
       </c>
       <c r="J3" t="n">
-        <v>34.86</v>
+        <v>21.24</v>
       </c>
       <c r="K3" t="n">
-        <v>48.33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -5411,34 +7580,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29.77</v>
+        <v>24.62</v>
       </c>
       <c r="C4" t="n">
-        <v>27.6</v>
+        <v>32.35</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>27.52</v>
+        <v>26.69</v>
       </c>
       <c r="F4" t="n">
-        <v>22.46</v>
+        <v>21.13</v>
       </c>
       <c r="G4" t="n">
-        <v>48.33</v>
+        <v>40.45</v>
       </c>
       <c r="H4" t="n">
-        <v>31.89</v>
+        <v>39.89</v>
       </c>
       <c r="I4" t="n">
-        <v>43.15</v>
+        <v>23.03</v>
       </c>
       <c r="J4" t="n">
-        <v>27.26</v>
+        <v>11.47</v>
       </c>
       <c r="K4" t="n">
-        <v>47.08</v>
+        <v>25.22</v>
       </c>
     </row>
     <row r="5">
@@ -5446,34 +7615,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28.86</v>
+        <v>8.31</v>
       </c>
       <c r="C5" t="n">
-        <v>11.31</v>
+        <v>7.89</v>
       </c>
       <c r="D5" t="n">
-        <v>37.2</v>
+        <v>26.69</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>9</v>
+        <v>25.02</v>
       </c>
       <c r="G5" t="n">
-        <v>19.06</v>
+        <v>23.56</v>
       </c>
       <c r="H5" t="n">
-        <v>26.72</v>
+        <v>15.91</v>
       </c>
       <c r="I5" t="n">
-        <v>48.33</v>
+        <v>4.7</v>
       </c>
       <c r="J5" t="n">
-        <v>40.95</v>
+        <v>15.22</v>
       </c>
       <c r="K5" t="n">
-        <v>25.2</v>
+        <v>24.31</v>
       </c>
     </row>
     <row r="6">
@@ -5481,34 +7650,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>31.87</v>
+        <v>17.34</v>
       </c>
       <c r="C6" t="n">
-        <v>28.86</v>
+        <v>25.17</v>
       </c>
       <c r="D6" t="n">
-        <v>34.91</v>
+        <v>21.13</v>
       </c>
       <c r="E6" t="n">
-        <v>27.19</v>
+        <v>25.02</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>33.16</v>
+        <v>23.94</v>
       </c>
       <c r="H6" t="n">
-        <v>30.17</v>
+        <v>29.5</v>
       </c>
       <c r="I6" t="n">
-        <v>12.09</v>
+        <v>24.94</v>
       </c>
       <c r="J6" t="n">
-        <v>26.74</v>
+        <v>18.86</v>
       </c>
       <c r="K6" t="n">
-        <v>11.81</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="7">
@@ -5516,34 +7685,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.74</v>
+        <v>18.05</v>
       </c>
       <c r="C7" t="n">
-        <v>20.18</v>
+        <v>16.58</v>
       </c>
       <c r="D7" t="n">
-        <v>48.33</v>
+        <v>40.45</v>
       </c>
       <c r="E7" t="n">
-        <v>31.54</v>
+        <v>23.56</v>
       </c>
       <c r="F7" t="n">
-        <v>14.68</v>
+        <v>23.94</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>22.19</v>
+        <v>12.71</v>
       </c>
       <c r="I7" t="n">
-        <v>22.1</v>
+        <v>27.44</v>
       </c>
       <c r="J7" t="n">
-        <v>22.19</v>
+        <v>31.7</v>
       </c>
       <c r="K7" t="n">
-        <v>39.45</v>
+        <v>19.49</v>
       </c>
     </row>
     <row r="8">
@@ -5551,34 +7720,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.13</v>
+        <v>15.33</v>
       </c>
       <c r="C8" t="n">
-        <v>36.53</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>32.82</v>
+        <v>39.89</v>
       </c>
       <c r="E8" t="n">
-        <v>39.67</v>
+        <v>15.91</v>
       </c>
       <c r="F8" t="n">
-        <v>27.98</v>
+        <v>29.5</v>
       </c>
       <c r="G8" t="n">
-        <v>48.33</v>
+        <v>12.71</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>47.99</v>
+        <v>20.58</v>
       </c>
       <c r="J8" t="n">
-        <v>48.33</v>
+        <v>29.07</v>
       </c>
       <c r="K8" t="n">
-        <v>29.16</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="9">
@@ -5586,34 +7755,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>26.47</v>
+        <v>10.38</v>
       </c>
       <c r="C9" t="n">
-        <v>30.17</v>
+        <v>12.5</v>
       </c>
       <c r="D9" t="n">
-        <v>13.84</v>
+        <v>23.03</v>
       </c>
       <c r="E9" t="n">
-        <v>48.33</v>
+        <v>4.7</v>
       </c>
       <c r="F9" t="n">
-        <v>23.13</v>
+        <v>24.94</v>
       </c>
       <c r="G9" t="n">
-        <v>12.22</v>
+        <v>27.44</v>
       </c>
       <c r="H9" t="n">
-        <v>26.15</v>
+        <v>20.58</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>11.16</v>
+        <v>11.68</v>
       </c>
       <c r="K9" t="n">
-        <v>22.82</v>
+        <v>25.12</v>
       </c>
     </row>
     <row r="10">
@@ -5621,34 +7790,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>42.94</v>
+        <v>14.26</v>
       </c>
       <c r="C10" t="n">
-        <v>48.33</v>
+        <v>21.24</v>
       </c>
       <c r="D10" t="n">
-        <v>48.33</v>
+        <v>11.47</v>
       </c>
       <c r="E10" t="n">
-        <v>35.78</v>
+        <v>15.22</v>
       </c>
       <c r="F10" t="n">
-        <v>24.04</v>
+        <v>18.86</v>
       </c>
       <c r="G10" t="n">
-        <v>28.34</v>
+        <v>31.7</v>
       </c>
       <c r="H10" t="n">
-        <v>25.52</v>
+        <v>29.07</v>
       </c>
       <c r="I10" t="n">
-        <v>8.51</v>
+        <v>11.68</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>20.15</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="11">
@@ -5656,31 +7825,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.95</v>
+        <v>16.11</v>
       </c>
       <c r="C11" t="n">
-        <v>47.57</v>
+        <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>48.33</v>
+        <v>25.22</v>
       </c>
       <c r="E11" t="n">
-        <v>36.61</v>
+        <v>24.31</v>
       </c>
       <c r="F11" t="n">
-        <v>15.42</v>
+        <v>4.75</v>
       </c>
       <c r="G11" t="n">
-        <v>37.32</v>
+        <v>19.49</v>
       </c>
       <c r="H11" t="n">
-        <v>34.09</v>
+        <v>26.25</v>
       </c>
       <c r="I11" t="n">
-        <v>24.29</v>
+        <v>25.12</v>
       </c>
       <c r="J11" t="n">
-        <v>26.7</v>
+        <v>21.2</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -5692,6 +7861,421 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6.16127216941615</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.842336376601796</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-2.324253985227553</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.686526525561852</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>26.43141875832083</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-9.124260867843152</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8422183777018653</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.544324388073026</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>22.14532773957596</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11.56940859263502</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6018336330657607</v>
+      </c>
+      <c r="C7" t="n">
+        <v>22.01042327927471</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-7.347098487247097</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12.09291279248112</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.733987632612155</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-5.247345381610147</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>15.38584727715959</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-6.033233853068156</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>18.74858228733178</v>
+      </c>
+      <c r="C11" t="n">
+        <v>14.89573903194691</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>estimation_technique</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>max_error</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>max_percent_error</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>avg_error</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>avg_percent_error</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>true_pos_rate</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>false_pos_rate</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28.41</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6131508678237649</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7.472000000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2598986869124116</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0001614093780517578</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19.035</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6131508678237649</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.13488888888889</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1901397852935559</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0001361370086669922</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>spring_model</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9563511525257479</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14.05288888888889</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4491281790904741</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3717341423034668</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>48.56</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9443796188253598</v>
+      </c>
+      <c r="E5" t="n">
+        <v>14.19488888888889</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.4566965440949514</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.392243385314941</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7167947310647642</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.154000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1287977367428299</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.132439136505127</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.204800000000001</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11.75533333333333</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5004144974651495</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.07721853256225586</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>44.68</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.1616</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9.997555555555556</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3353160905919373</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.824313163757324</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5748,28 +8332,28 @@
         <v>48.33</v>
       </c>
       <c r="D2" t="n">
-        <v>39.05</v>
+        <v>48.33</v>
       </c>
       <c r="E2" t="n">
-        <v>38.595</v>
+        <v>48.33</v>
       </c>
       <c r="F2" t="n">
-        <v>25.03</v>
+        <v>18.19</v>
       </c>
       <c r="G2" t="n">
-        <v>32.175</v>
+        <v>36.61</v>
       </c>
       <c r="H2" t="n">
-        <v>8.695</v>
+        <v>11.26</v>
       </c>
       <c r="I2" t="n">
-        <v>31.28</v>
+        <v>36.09</v>
       </c>
       <c r="J2" t="n">
-        <v>45.635</v>
+        <v>48.33</v>
       </c>
       <c r="K2" t="n">
-        <v>12.99</v>
+        <v>13.03</v>
       </c>
     </row>
     <row r="3">
@@ -5783,28 +8367,28 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>34.57</v>
+        <v>41.54</v>
       </c>
       <c r="E3" t="n">
-        <v>8.395</v>
+        <v>5.48</v>
       </c>
       <c r="F3" t="n">
-        <v>26.94</v>
+        <v>25.02</v>
       </c>
       <c r="G3" t="n">
-        <v>25.465</v>
+        <v>30.75</v>
       </c>
       <c r="H3" t="n">
-        <v>37</v>
+        <v>37.47</v>
       </c>
       <c r="I3" t="n">
-        <v>35.855</v>
+        <v>41.54</v>
       </c>
       <c r="J3" t="n">
-        <v>41.595</v>
+        <v>34.86</v>
       </c>
       <c r="K3" t="n">
-        <v>47.95</v>
+        <v>48.33</v>
       </c>
     </row>
     <row r="4">
@@ -5812,34 +8396,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39.05</v>
+        <v>29.77</v>
       </c>
       <c r="C4" t="n">
-        <v>34.57</v>
+        <v>27.6</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>32.36</v>
+        <v>27.52</v>
       </c>
       <c r="F4" t="n">
-        <v>28.685</v>
+        <v>22.46</v>
       </c>
       <c r="G4" t="n">
         <v>48.33</v>
       </c>
       <c r="H4" t="n">
-        <v>32.355</v>
+        <v>31.89</v>
       </c>
       <c r="I4" t="n">
-        <v>28.495</v>
+        <v>43.15</v>
       </c>
       <c r="J4" t="n">
-        <v>37.795</v>
+        <v>27.26</v>
       </c>
       <c r="K4" t="n">
-        <v>47.705</v>
+        <v>47.08</v>
       </c>
     </row>
     <row r="5">
@@ -5847,34 +8431,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38.595</v>
+        <v>28.86</v>
       </c>
       <c r="C5" t="n">
-        <v>8.395</v>
+        <v>11.31</v>
       </c>
       <c r="D5" t="n">
-        <v>32.36</v>
+        <v>37.2</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>18.095</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>25.3</v>
+        <v>19.06</v>
       </c>
       <c r="H5" t="n">
-        <v>33.195</v>
+        <v>26.72</v>
       </c>
       <c r="I5" t="n">
         <v>48.33</v>
       </c>
       <c r="J5" t="n">
-        <v>38.365</v>
+        <v>40.95</v>
       </c>
       <c r="K5" t="n">
-        <v>30.905</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="6">
@@ -5882,34 +8466,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>25.03</v>
+        <v>31.87</v>
       </c>
       <c r="C6" t="n">
-        <v>26.94</v>
+        <v>28.86</v>
       </c>
       <c r="D6" t="n">
-        <v>28.685</v>
+        <v>34.91</v>
       </c>
       <c r="E6" t="n">
-        <v>18.095</v>
+        <v>27.19</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>23.92</v>
+        <v>33.16</v>
       </c>
       <c r="H6" t="n">
-        <v>29.075</v>
+        <v>30.17</v>
       </c>
       <c r="I6" t="n">
-        <v>17.61</v>
+        <v>12.09</v>
       </c>
       <c r="J6" t="n">
-        <v>25.39</v>
+        <v>26.74</v>
       </c>
       <c r="K6" t="n">
-        <v>13.615</v>
+        <v>11.81</v>
       </c>
     </row>
     <row r="7">
@@ -5917,34 +8501,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>32.175</v>
+        <v>27.74</v>
       </c>
       <c r="C7" t="n">
-        <v>25.465</v>
+        <v>20.18</v>
       </c>
       <c r="D7" t="n">
         <v>48.33</v>
       </c>
       <c r="E7" t="n">
-        <v>25.3</v>
+        <v>31.54</v>
       </c>
       <c r="F7" t="n">
-        <v>23.92</v>
+        <v>14.68</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>35.26</v>
+        <v>22.19</v>
       </c>
       <c r="I7" t="n">
-        <v>17.16</v>
+        <v>22.1</v>
       </c>
       <c r="J7" t="n">
-        <v>25.265</v>
+        <v>22.19</v>
       </c>
       <c r="K7" t="n">
-        <v>38.38500000000001</v>
+        <v>39.45</v>
       </c>
     </row>
     <row r="8">
@@ -5952,34 +8536,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8.695</v>
+        <v>6.13</v>
       </c>
       <c r="C8" t="n">
-        <v>37</v>
+        <v>36.53</v>
       </c>
       <c r="D8" t="n">
-        <v>32.355</v>
+        <v>32.82</v>
       </c>
       <c r="E8" t="n">
-        <v>33.195</v>
+        <v>39.67</v>
       </c>
       <c r="F8" t="n">
-        <v>29.075</v>
+        <v>27.98</v>
       </c>
       <c r="G8" t="n">
-        <v>35.26</v>
+        <v>48.33</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>37.07</v>
+        <v>47.99</v>
       </c>
       <c r="J8" t="n">
-        <v>36.925</v>
+        <v>48.33</v>
       </c>
       <c r="K8" t="n">
-        <v>31.625</v>
+        <v>29.16</v>
       </c>
     </row>
     <row r="9">
@@ -5987,34 +8571,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>31.28</v>
+        <v>26.47</v>
       </c>
       <c r="C9" t="n">
-        <v>35.855</v>
+        <v>30.17</v>
       </c>
       <c r="D9" t="n">
-        <v>28.495</v>
+        <v>13.84</v>
       </c>
       <c r="E9" t="n">
         <v>48.33</v>
       </c>
       <c r="F9" t="n">
-        <v>17.61</v>
+        <v>23.13</v>
       </c>
       <c r="G9" t="n">
-        <v>17.16</v>
+        <v>12.22</v>
       </c>
       <c r="H9" t="n">
-        <v>37.07</v>
+        <v>26.15</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>9.835000000000001</v>
+        <v>11.16</v>
       </c>
       <c r="K9" t="n">
-        <v>23.555</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="10">
@@ -6022,34 +8606,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>45.635</v>
+        <v>42.94</v>
       </c>
       <c r="C10" t="n">
-        <v>41.595</v>
+        <v>48.33</v>
       </c>
       <c r="D10" t="n">
-        <v>37.795</v>
+        <v>48.33</v>
       </c>
       <c r="E10" t="n">
-        <v>38.365</v>
+        <v>35.78</v>
       </c>
       <c r="F10" t="n">
-        <v>25.39</v>
+        <v>24.04</v>
       </c>
       <c r="G10" t="n">
-        <v>25.265</v>
+        <v>28.34</v>
       </c>
       <c r="H10" t="n">
-        <v>36.925</v>
+        <v>25.52</v>
       </c>
       <c r="I10" t="n">
-        <v>9.835000000000001</v>
+        <v>8.51</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>23.425</v>
+        <v>20.15</v>
       </c>
     </row>
     <row r="11">
@@ -6057,572 +8641,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.99</v>
+        <v>12.95</v>
       </c>
       <c r="C11" t="n">
-        <v>47.95</v>
+        <v>47.57</v>
       </c>
       <c r="D11" t="n">
-        <v>47.705</v>
+        <v>48.33</v>
       </c>
       <c r="E11" t="n">
-        <v>30.905</v>
+        <v>36.61</v>
       </c>
       <c r="F11" t="n">
-        <v>13.615</v>
+        <v>15.42</v>
       </c>
       <c r="G11" t="n">
-        <v>38.38500000000001</v>
+        <v>37.32</v>
       </c>
       <c r="H11" t="n">
-        <v>31.625</v>
+        <v>34.09</v>
       </c>
       <c r="I11" t="n">
-        <v>23.555</v>
+        <v>24.29</v>
       </c>
       <c r="J11" t="n">
-        <v>23.425</v>
+        <v>26.7</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24.62</v>
-      </c>
-      <c r="E2" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="F2" t="n">
-        <v>17.34</v>
-      </c>
-      <c r="G2" t="n">
-        <v>18.05</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15.33</v>
-      </c>
-      <c r="I2" t="n">
-        <v>10.38</v>
-      </c>
-      <c r="J2" t="n">
-        <v>14.26</v>
-      </c>
-      <c r="K2" t="n">
-        <v>16.11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>32.35</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="F3" t="n">
-        <v>25.17</v>
-      </c>
-      <c r="G3" t="n">
-        <v>16.58</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="I3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>21.24</v>
-      </c>
-      <c r="K3" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>24.62</v>
-      </c>
-      <c r="C4" t="n">
-        <v>32.35</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>26.69</v>
-      </c>
-      <c r="F4" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="G4" t="n">
-        <v>40.45</v>
-      </c>
-      <c r="H4" t="n">
-        <v>39.89</v>
-      </c>
-      <c r="I4" t="n">
-        <v>23.03</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="K4" t="n">
-        <v>25.22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="D5" t="n">
-        <v>26.69</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>25.02</v>
-      </c>
-      <c r="G5" t="n">
-        <v>23.56</v>
-      </c>
-      <c r="H5" t="n">
-        <v>15.91</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J5" t="n">
-        <v>15.22</v>
-      </c>
-      <c r="K5" t="n">
-        <v>24.31</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>17.34</v>
-      </c>
-      <c r="C6" t="n">
-        <v>25.17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="E6" t="n">
-        <v>25.02</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>23.94</v>
-      </c>
-      <c r="H6" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>24.94</v>
-      </c>
-      <c r="J6" t="n">
-        <v>18.86</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>18.05</v>
-      </c>
-      <c r="C7" t="n">
-        <v>16.58</v>
-      </c>
-      <c r="D7" t="n">
-        <v>40.45</v>
-      </c>
-      <c r="E7" t="n">
-        <v>23.56</v>
-      </c>
-      <c r="F7" t="n">
-        <v>23.94</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="I7" t="n">
-        <v>27.44</v>
-      </c>
-      <c r="J7" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="K7" t="n">
-        <v>19.49</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>15.33</v>
-      </c>
-      <c r="C8" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="D8" t="n">
-        <v>39.89</v>
-      </c>
-      <c r="E8" t="n">
-        <v>15.91</v>
-      </c>
-      <c r="F8" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="G8" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>20.58</v>
-      </c>
-      <c r="J8" t="n">
-        <v>29.07</v>
-      </c>
-      <c r="K8" t="n">
-        <v>26.25</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>10.38</v>
-      </c>
-      <c r="C9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>23.03</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="F9" t="n">
-        <v>24.94</v>
-      </c>
-      <c r="G9" t="n">
-        <v>27.44</v>
-      </c>
-      <c r="H9" t="n">
-        <v>20.58</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="K9" t="n">
-        <v>25.12</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>14.26</v>
-      </c>
-      <c r="C10" t="n">
-        <v>21.24</v>
-      </c>
-      <c r="D10" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="E10" t="n">
-        <v>15.22</v>
-      </c>
-      <c r="F10" t="n">
-        <v>18.86</v>
-      </c>
-      <c r="G10" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>29.07</v>
-      </c>
-      <c r="I10" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>21.2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>16.11</v>
-      </c>
-      <c r="C11" t="n">
-        <v>23</v>
-      </c>
-      <c r="D11" t="n">
-        <v>25.22</v>
-      </c>
-      <c r="E11" t="n">
-        <v>24.31</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="G11" t="n">
-        <v>19.49</v>
-      </c>
-      <c r="H11" t="n">
-        <v>26.25</v>
-      </c>
-      <c r="I11" t="n">
-        <v>25.12</v>
-      </c>
-      <c r="J11" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6.16127216941615</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4.842336376601796</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-2.324253985227553</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5.686526525561852</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>26.43141875832083</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-9.124260867843152</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.8422183777018653</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-1.544324388073026</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>22.14532773957596</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11.56940859263502</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.6018336330657607</v>
-      </c>
-      <c r="C7" t="n">
-        <v>22.01042327927471</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-7.347098487247097</v>
-      </c>
-      <c r="C8" t="n">
-        <v>12.09291279248112</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3.733987632612155</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-5.247345381610147</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>15.38584727715959</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-6.033233853068156</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>18.74858228733178</v>
-      </c>
-      <c r="C11" t="n">
-        <v>14.89573903194691</v>
       </c>
     </row>
   </sheetData>
@@ -6684,31 +8730,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>37.28</v>
+        <v>48.33</v>
       </c>
       <c r="D2" t="n">
-        <v>37.72</v>
+        <v>37.93</v>
       </c>
       <c r="E2" t="n">
-        <v>28.63</v>
+        <v>37.35</v>
       </c>
       <c r="F2" t="n">
-        <v>23.5</v>
+        <v>24.07</v>
       </c>
       <c r="G2" t="n">
-        <v>37.76</v>
+        <v>31.87</v>
       </c>
       <c r="H2" t="n">
-        <v>7.13</v>
+        <v>8.31</v>
       </c>
       <c r="I2" t="n">
-        <v>35.69</v>
+        <v>30.91</v>
       </c>
       <c r="J2" t="n">
-        <v>30.45</v>
+        <v>45.56</v>
       </c>
       <c r="K2" t="n">
-        <v>12.96</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="3">
@@ -6716,34 +8762,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>37.28</v>
+        <v>48.33</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.12</v>
+        <v>33.86</v>
       </c>
       <c r="E3" t="n">
-        <v>8.710000000000001</v>
+        <v>7.87</v>
       </c>
       <c r="F3" t="n">
-        <v>13.78</v>
+        <v>26.87</v>
       </c>
       <c r="G3" t="n">
-        <v>2.32</v>
+        <v>24.91</v>
       </c>
       <c r="H3" t="n">
-        <v>32.19</v>
+        <v>36.99</v>
       </c>
       <c r="I3" t="n">
-        <v>5.64</v>
+        <v>35.4</v>
       </c>
       <c r="J3" t="n">
-        <v>7.39</v>
+        <v>41.05</v>
       </c>
       <c r="K3" t="n">
-        <v>25.67</v>
+        <v>47.95</v>
       </c>
     </row>
     <row r="4">
@@ -6751,34 +8797,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37.72</v>
+        <v>37.93</v>
       </c>
       <c r="C4" t="n">
-        <v>5.12</v>
+        <v>33.86</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9.710000000000001</v>
+        <v>31.99</v>
       </c>
       <c r="F4" t="n">
-        <v>14.77</v>
+        <v>28</v>
       </c>
       <c r="G4" t="n">
-        <v>2.86</v>
+        <v>48.33</v>
       </c>
       <c r="H4" t="n">
-        <v>31.95</v>
+        <v>32.35</v>
       </c>
       <c r="I4" t="n">
-        <v>10.6</v>
+        <v>24.44</v>
       </c>
       <c r="J4" t="n">
-        <v>10.42</v>
+        <v>36.3</v>
       </c>
       <c r="K4" t="n">
-        <v>27.19</v>
+        <v>47.71</v>
       </c>
     </row>
     <row r="5">
@@ -6786,34 +8832,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28.63</v>
+        <v>37.35</v>
       </c>
       <c r="C5" t="n">
-        <v>8.710000000000001</v>
+        <v>7.87</v>
       </c>
       <c r="D5" t="n">
-        <v>9.710000000000001</v>
+        <v>31.99</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>5.19</v>
+        <v>15.65</v>
       </c>
       <c r="G5" t="n">
-        <v>9.18</v>
+        <v>24.52</v>
       </c>
       <c r="H5" t="n">
-        <v>23.49</v>
+        <v>32.56</v>
       </c>
       <c r="I5" t="n">
-        <v>9.119999999999999</v>
+        <v>48.33</v>
       </c>
       <c r="J5" t="n">
-        <v>3.91</v>
+        <v>38.28</v>
       </c>
       <c r="K5" t="n">
-        <v>17.52</v>
+        <v>30.37</v>
       </c>
     </row>
     <row r="6">
@@ -6821,34 +8867,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23.5</v>
+        <v>24.07</v>
       </c>
       <c r="C6" t="n">
-        <v>13.78</v>
+        <v>26.87</v>
       </c>
       <c r="D6" t="n">
-        <v>14.77</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n">
-        <v>5.19</v>
+        <v>15.65</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>14.37</v>
+        <v>22.06</v>
       </c>
       <c r="H6" t="n">
-        <v>18.64</v>
+        <v>29.05</v>
       </c>
       <c r="I6" t="n">
-        <v>12.95</v>
+        <v>16.72</v>
       </c>
       <c r="J6" t="n">
-        <v>7.34</v>
+        <v>25.36</v>
       </c>
       <c r="K6" t="n">
-        <v>12.43</v>
+        <v>13.49</v>
       </c>
     </row>
     <row r="7">
@@ -6856,34 +8902,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>37.76</v>
+        <v>31.87</v>
       </c>
       <c r="C7" t="n">
-        <v>2.32</v>
+        <v>24.91</v>
       </c>
       <c r="D7" t="n">
-        <v>2.86</v>
+        <v>48.33</v>
       </c>
       <c r="E7" t="n">
-        <v>9.18</v>
+        <v>24.52</v>
       </c>
       <c r="F7" t="n">
-        <v>14.37</v>
+        <v>22.06</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>32.36</v>
+        <v>32.75</v>
       </c>
       <c r="I7" t="n">
-        <v>7.93</v>
+        <v>16.44</v>
       </c>
       <c r="J7" t="n">
-        <v>8.81</v>
+        <v>25.08</v>
       </c>
       <c r="K7" t="n">
-        <v>26.59</v>
+        <v>38.37</v>
       </c>
     </row>
     <row r="8">
@@ -6891,34 +8937,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7.13</v>
+        <v>8.31</v>
       </c>
       <c r="C8" t="n">
-        <v>32.19</v>
+        <v>36.99</v>
       </c>
       <c r="D8" t="n">
-        <v>31.95</v>
+        <v>32.35</v>
       </c>
       <c r="E8" t="n">
-        <v>23.49</v>
+        <v>32.56</v>
       </c>
       <c r="F8" t="n">
-        <v>18.64</v>
+        <v>29.05</v>
       </c>
       <c r="G8" t="n">
-        <v>32.36</v>
+        <v>32.75</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>31.47</v>
+        <v>35.43</v>
       </c>
       <c r="J8" t="n">
-        <v>25.94</v>
+        <v>35.12</v>
       </c>
       <c r="K8" t="n">
-        <v>11.51</v>
+        <v>31.53</v>
       </c>
     </row>
     <row r="9">
@@ -6926,34 +8972,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>35.69</v>
+        <v>30.91</v>
       </c>
       <c r="C9" t="n">
-        <v>5.64</v>
+        <v>35.4</v>
       </c>
       <c r="D9" t="n">
-        <v>10.6</v>
+        <v>24.44</v>
       </c>
       <c r="E9" t="n">
-        <v>9.119999999999999</v>
+        <v>48.33</v>
       </c>
       <c r="F9" t="n">
-        <v>12.95</v>
+        <v>16.72</v>
       </c>
       <c r="G9" t="n">
-        <v>7.93</v>
+        <v>16.44</v>
       </c>
       <c r="H9" t="n">
-        <v>31.47</v>
+        <v>35.43</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>5.64</v>
+        <v>9.75</v>
       </c>
       <c r="K9" t="n">
-        <v>23.25</v>
+        <v>23.54</v>
       </c>
     </row>
     <row r="10">
@@ -6961,34 +9007,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>30.45</v>
+        <v>45.56</v>
       </c>
       <c r="C10" t="n">
-        <v>7.39</v>
+        <v>41.05</v>
       </c>
       <c r="D10" t="n">
-        <v>10.42</v>
+        <v>36.3</v>
       </c>
       <c r="E10" t="n">
-        <v>3.91</v>
+        <v>38.28</v>
       </c>
       <c r="F10" t="n">
-        <v>7.34</v>
+        <v>25.36</v>
       </c>
       <c r="G10" t="n">
-        <v>8.81</v>
+        <v>25.08</v>
       </c>
       <c r="H10" t="n">
-        <v>25.94</v>
+        <v>35.12</v>
       </c>
       <c r="I10" t="n">
-        <v>5.64</v>
+        <v>9.75</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>18.42</v>
+        <v>23.19</v>
       </c>
     </row>
     <row r="11">
@@ -6996,31 +9042,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.96</v>
+        <v>12.99</v>
       </c>
       <c r="C11" t="n">
-        <v>25.67</v>
+        <v>47.95</v>
       </c>
       <c r="D11" t="n">
-        <v>27.19</v>
+        <v>47.71</v>
       </c>
       <c r="E11" t="n">
-        <v>17.52</v>
+        <v>30.37</v>
       </c>
       <c r="F11" t="n">
-        <v>12.43</v>
+        <v>13.49</v>
       </c>
       <c r="G11" t="n">
-        <v>26.59</v>
+        <v>38.37</v>
       </c>
       <c r="H11" t="n">
-        <v>11.51</v>
+        <v>31.53</v>
       </c>
       <c r="I11" t="n">
-        <v>23.25</v>
+        <v>23.54</v>
       </c>
       <c r="J11" t="n">
-        <v>18.42</v>
+        <v>23.19</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
